--- a/xlsx/永續設計_intext.xlsx
+++ b/xlsx/永續設計_intext.xlsx
@@ -29,7 +29,7 @@
     <t>經濟</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_永續設計</t>
+    <t>体育运动_体育运动_技术_永續設計</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
